--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-43/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-43/curvature_data.xlsx
@@ -379,100 +379,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>53049.938998</v>
+        <v>52983.410995</v>
       </c>
       <c r="B2">
-        <v>-3.3857796661e-05</v>
+        <v>-3.5110205925e-05</v>
       </c>
       <c r="C2">
-        <v>-2.7467557782e-05</v>
+        <v>-2.8431816755e-05</v>
       </c>
       <c r="D2">
-        <v>-8.5371555062e-06</v>
+        <v>-8.648562900900001e-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>53004.742996</v>
+        <v>52993.274996</v>
       </c>
       <c r="B3">
-        <v>-0.00046407346032</v>
+        <v>-0.00019735205444</v>
       </c>
       <c r="C3">
-        <v>-0.00037471983987</v>
+        <v>-0.00015868754573</v>
       </c>
       <c r="D3">
-        <v>-9.850632515300001e-05</v>
+        <v>-4.3809629938e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>53039.674998</v>
+        <v>53004.742996</v>
       </c>
       <c r="B4">
-        <v>-0.00018187325441</v>
+        <v>-0.00046407346032</v>
       </c>
       <c r="C4">
-        <v>-0.00014750007443</v>
+        <v>-0.00037471983987</v>
       </c>
       <c r="D4">
-        <v>-4.5408224962e-05</v>
+        <v>-9.850632515300001e-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>53027.274997</v>
+        <v>53016.138997</v>
       </c>
       <c r="B5">
-        <v>-0.0004477962</v>
+        <v>-0.0007243071999999999</v>
       </c>
       <c r="C5">
-        <v>-0.0003643645</v>
+        <v>-0.000592471</v>
       </c>
       <c r="D5">
-        <v>-0.0001063826</v>
+        <v>-0.000149071</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>52983.410995</v>
+        <v>53027.274997</v>
       </c>
       <c r="B6">
-        <v>-3.5110205925e-05</v>
+        <v>-0.0004477962</v>
       </c>
       <c r="C6">
-        <v>-2.8431816755e-05</v>
+        <v>-0.0003643645</v>
       </c>
       <c r="D6">
-        <v>-8.648562900900001e-06</v>
+        <v>-0.0001063826</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>52993.274996</v>
+        <v>53039.674998</v>
       </c>
       <c r="B7">
-        <v>-0.00019735205444</v>
+        <v>-0.00018187325441</v>
       </c>
       <c r="C7">
-        <v>-0.00015868754573</v>
+        <v>-0.00014750007443</v>
       </c>
       <c r="D7">
-        <v>-4.3809629938e-05</v>
+        <v>-4.5408224962e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>53016.138997</v>
+        <v>53049.938998</v>
       </c>
       <c r="B8">
-        <v>-0.0007243071999999999</v>
+        <v>-3.3857796661e-05</v>
       </c>
       <c r="C8">
-        <v>-0.000592471</v>
+        <v>-2.7467557782e-05</v>
       </c>
       <c r="D8">
-        <v>-0.000149071</v>
+        <v>-8.5371555062e-06</v>
       </c>
     </row>
   </sheetData>
